--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
@@ -2941,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3046,9 +3046,25 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>43321</v>
+      </c>
       <c r="B13">
-        <f>SUM(B1:B12)</f>
-        <v>57</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>43326</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3060,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
     <sheet name="Editados" sheetId="3" r:id="rId2"/>
     <sheet name="Respaldo DDP" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="7" r:id="rId4"/>
-    <sheet name="Formato entrega " sheetId="5" r:id="rId5"/>
-    <sheet name="Quemados" sheetId="2" r:id="rId6"/>
-    <sheet name="conteo audiencias" sheetId="6" r:id="rId7"/>
-    <sheet name="firmadas fuera de tiempo" sheetId="8" r:id="rId8"/>
+    <sheet name="Formato entrega " sheetId="5" r:id="rId4"/>
+    <sheet name="Quemados" sheetId="2" r:id="rId5"/>
+    <sheet name="conteo audiencias" sheetId="6" r:id="rId6"/>
+    <sheet name="firmadas fuera de tiempo" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2322,21 +2321,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2361,7 +2348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -2939,11 +2926,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3072,7 +3059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>

--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -652,23 +652,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,32 +967,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="10.90625" style="2"/>
+    <col min="6" max="6" width="48.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -984,16 +1002,16 @@
       <c r="A2" s="1">
         <v>43265</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="12">
         <v>0.41875000000000001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1001,16 +1019,16 @@
       <c r="A3" s="1">
         <v>43265</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="12">
         <v>0.4375</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="12">
         <v>0.4694444444444445</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1018,16 +1036,16 @@
       <c r="A4" s="1">
         <v>43265</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="12">
         <v>0.4597222222222222</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1035,16 +1053,16 @@
       <c r="A5" s="1">
         <v>43265</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="12">
         <v>0.51111111111111118</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1052,16 +1070,16 @@
       <c r="A6" s="1">
         <v>43265</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="12">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="12">
         <v>0.54097222222222219</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1069,16 +1087,16 @@
       <c r="A7" s="1">
         <v>43264</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="12">
         <v>0.50277777777777777</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1086,16 +1104,16 @@
       <c r="A8" s="1">
         <v>43263</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="12">
         <v>0.41875000000000001</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1103,16 +1121,16 @@
       <c r="A9" s="1">
         <v>43263</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="12">
         <v>0.4375</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="12">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1120,16 +1138,16 @@
       <c r="A10" s="1">
         <v>43263</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="12">
         <v>0.50763888888888886</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1137,16 +1155,16 @@
       <c r="A11" s="1">
         <v>43263</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="12">
         <v>0.58263888888888882</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1154,16 +1172,16 @@
       <c r="A12" s="1">
         <v>43258</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="12">
         <v>0.4375</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="12">
         <v>0.44722222222222219</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1171,16 +1189,16 @@
       <c r="A13" s="1">
         <v>43258</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="12">
         <v>0.46597222222222223</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1188,16 +1206,16 @@
       <c r="A14" s="1">
         <v>43258</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="12">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="12">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1205,16 +1223,16 @@
       <c r="A15" s="1">
         <v>43258</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="12">
         <v>0.5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="12">
         <v>0.50624999999999998</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1222,16 +1240,16 @@
       <c r="A16" s="1">
         <v>43258</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="12">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="12">
         <v>0.52430555555555558</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1239,16 +1257,16 @@
       <c r="A17" s="1">
         <v>43258</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="12">
         <v>0.5444444444444444</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1688,40 +1706,42 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="10.90625" style="2"/>
+    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2190,55 +2210,58 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="2"/>
+    <col min="4" max="4" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>826</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>196</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F2" s="1">
@@ -2249,42 +2272,42 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>822</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>196</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F3" s="1">
         <v>43292</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>855</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>230</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F4" s="1">
@@ -2292,25 +2315,25 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>851</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>230</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F5" s="1">
         <v>43322</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2323,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2352,572 +2375,572 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.90625" style="3"/>
-    <col min="7" max="7" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.90625" style="3"/>
-    <col min="10" max="10" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="24.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.90625" style="3"/>
+    <col min="1" max="1" width="13.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.90625" style="5"/>
+    <col min="7" max="7" width="22.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.90625" style="5"/>
+    <col min="10" max="10" width="12.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="24.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.90625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>43272</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>43256</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>0.5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>0.5180555555555556</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>43273</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>43235</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>0.45</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>43273</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>43242</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>0.5625</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>0.56527777777777777</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>43272</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>43257</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>0.57847222222222217</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>43273</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>43265</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>43273</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>43256</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>0.4375</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>43278</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>43265</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>0.4375</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>0.4694444444444445</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>43283</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>43279</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>0.5625</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>0.57777777777777783</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>43283</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>43265</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>43285</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>43265</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>0.4375</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>0.4694444444444445</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="7">
         <v>43283</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>43279</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>0.5625</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>0.57777777777777783</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="7">
         <v>43290</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>43270</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>0.4375</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="7">
         <v>43290</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>43270</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <v>43290</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>43270</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="7">
         <v>43290</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>43264</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="7">
         <v>43290</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>43279</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="7">
         <v>43294</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>43293</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="7">
         <v>43294</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>43258</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>0.5</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="8">
         <v>0.50624999999999998</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="7">
         <v>43297</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>43272</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <v>0.4375</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
         <v>0.44305555555555554</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="7">
         <v>43298</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="7">
         <v>43216</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="8">
         <v>0.51944444444444449</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2931,125 +2954,126 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1" s="3">
         <v>43270</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>43272</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>43277</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>43279</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>43284</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>43286</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>43291</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>43293</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>43294</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>43298</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>43314</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>43319</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>43321</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>43326</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
         <f>SUM(B1:B14)</f>
         <v>68</v>
       </c>
@@ -3063,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3073,1015 +3097,1086 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>43265</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>43325</v>
       </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>43265</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>43325</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>43265</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>43325</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>43265</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>43325</v>
       </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>43265</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>43325</v>
       </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>43264</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>43325</v>
       </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>43263</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>43325</v>
       </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>43263</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>43325</v>
       </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="1">
         <v>43263</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>43325</v>
       </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>43263</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>43325</v>
       </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="1">
         <v>43258</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>43325</v>
       </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="1">
         <v>43258</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>43325</v>
       </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="1">
         <v>43258</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>43325</v>
       </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>43258</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>43325</v>
       </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="1">
         <v>43258</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>43325</v>
       </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="1">
         <v>43258</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>43325</v>
       </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>43257</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>43325</v>
       </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>43256</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>43325</v>
       </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B20" s="1">
         <v>43256</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>43325</v>
       </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B21" s="1">
         <v>43256</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>43325</v>
       </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1">
         <v>43256</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>43325</v>
       </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B23" s="1">
         <v>43223</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>43325</v>
       </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B24" s="1">
         <v>43223</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>43325</v>
       </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B25" s="1">
         <v>43223</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>43325</v>
       </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B26" s="1">
         <v>43223</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>43325</v>
       </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B27" s="1">
         <v>43228</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>43325</v>
       </c>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B28" s="1">
         <v>43228</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="1">
         <v>43325</v>
       </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B29" s="1">
         <v>43228</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>43325</v>
       </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B30" s="1">
         <v>43228</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>43325</v>
       </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B31" s="1">
         <v>43228</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B32" s="1">
         <v>43228</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>43325</v>
       </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>43228</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>43325</v>
       </c>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B34" s="1">
         <v>43229</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>43325</v>
       </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B35" s="1">
         <v>43229</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>43325</v>
       </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B36" s="1">
         <v>43229</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>43325</v>
       </c>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B37" s="1">
         <v>43229</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="1">
         <v>43325</v>
       </c>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>43229</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>43325</v>
       </c>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="1">
         <v>43235</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="1">
         <v>43325</v>
       </c>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="1">
         <v>43235</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="1">
         <v>43325</v>
       </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B41" s="1">
         <v>43235</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="1">
         <v>43325</v>
       </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B42" s="1">
         <v>43235</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>43325</v>
       </c>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B43" s="1">
         <v>43235</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="1">
         <v>43325</v>
       </c>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B44" s="1">
         <v>43237</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="1">
         <v>43325</v>
       </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B45" s="1">
         <v>43237</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>43325</v>
       </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B46" s="1">
         <v>43237</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>43325</v>
       </c>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B47" s="1">
         <v>43237</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>43325</v>
       </c>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B48" s="1">
         <v>43237</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B49" s="1">
         <v>43242</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>43325</v>
       </c>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B50" s="1">
         <v>43242</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>43325</v>
       </c>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="1">
         <v>43242</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B52" s="1">
         <v>43242</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" s="1">
         <v>43325</v>
       </c>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B53" s="1">
         <v>43242</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="1">
         <v>43242</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" s="1">
         <v>43325</v>
       </c>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B55" s="1">
         <v>43244</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="D55" s="1">
         <v>43325</v>
       </c>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B56" s="1">
         <v>43244</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>43325</v>
       </c>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B57" s="1">
         <v>43244</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="1">
         <v>43325</v>
       </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B58" s="1">
         <v>43244</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>43325</v>
       </c>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B59" s="1">
         <v>43244</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>1</v>
       </c>
       <c r="D59" s="1">
         <v>43325</v>
       </c>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B60" s="1">
         <v>43244</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>43325</v>
       </c>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B61" s="1">
         <v>43249</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>43325</v>
       </c>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B62" s="1">
         <v>43249</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="D62" s="1">
         <v>43325</v>
       </c>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B63" s="1">
         <v>43249</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="D63" s="1">
         <v>43325</v>
       </c>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B64" s="1">
         <v>43249</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>2</v>
       </c>
       <c r="D64" s="1">
         <v>43325</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B65" s="1">
         <v>43249</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" s="1">
         <v>43325</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B66" s="1">
         <v>43251</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="D66" s="1">
         <v>43325</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B67" s="1">
         <v>43251</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>43325</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B68" s="1">
         <v>43251</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>1</v>
       </c>
       <c r="D68" s="1">
         <v>43325</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B69" s="1">
         <v>43251</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>1</v>
       </c>
       <c r="D69" s="1">
         <v>43325</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B70" s="1">
         <v>43251</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>1</v>
       </c>
       <c r="D70" s="1">
         <v>43325</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B71" s="1">
         <v>43251</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>1</v>
       </c>
       <c r="D71" s="1">
         <v>43325</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B72" s="1">
         <v>43251</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="1">
         <v>43325</v>
       </c>
+      <c r="E72" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Formato entrega " sheetId="5" r:id="rId4"/>
     <sheet name="Quemados" sheetId="2" r:id="rId5"/>
     <sheet name="conteo audiencias" sheetId="6" r:id="rId6"/>
-    <sheet name="firmadas fuera de tiempo" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="143">
   <si>
     <t>Expediente</t>
   </si>
@@ -459,150 +458,6 @@
   </si>
   <si>
     <t>582 GB</t>
-  </si>
-  <si>
-    <t>dia agenda</t>
-  </si>
-  <si>
-    <t>descripción</t>
-  </si>
-  <si>
-    <t>cantidad de archivos</t>
-  </si>
-  <si>
-    <t>fecha firma</t>
-  </si>
-  <si>
-    <t>162/2017</t>
-  </si>
-  <si>
-    <t>298/2018</t>
-  </si>
-  <si>
-    <t>1683/2017</t>
-  </si>
-  <si>
-    <t>91/2018</t>
-  </si>
-  <si>
-    <t>1023/2017</t>
-  </si>
-  <si>
-    <t>1425/2017</t>
-  </si>
-  <si>
-    <t>20/2018</t>
-  </si>
-  <si>
-    <t>1152/2017</t>
-  </si>
-  <si>
-    <t>210/2018</t>
-  </si>
-  <si>
-    <t>18/2017</t>
-  </si>
-  <si>
-    <t>834/2017</t>
-  </si>
-  <si>
-    <t>no esta agendado</t>
-  </si>
-  <si>
-    <t>1404/2017</t>
-  </si>
-  <si>
-    <t>1281/2017</t>
-  </si>
-  <si>
-    <t>1597/2017</t>
-  </si>
-  <si>
-    <t>167/2018</t>
-  </si>
-  <si>
-    <t>169/2018</t>
-  </si>
-  <si>
-    <t>886/2017</t>
-  </si>
-  <si>
-    <t>442/2017</t>
-  </si>
-  <si>
-    <t>794/2017</t>
-  </si>
-  <si>
-    <t>247/2017</t>
-  </si>
-  <si>
-    <t>67/2018</t>
-  </si>
-  <si>
-    <t>133/2016</t>
-  </si>
-  <si>
-    <t>1647/2017</t>
-  </si>
-  <si>
-    <t>197/2017</t>
-  </si>
-  <si>
-    <t>164/2018</t>
-  </si>
-  <si>
-    <t>1608/2017</t>
-  </si>
-  <si>
-    <t>168/2016</t>
-  </si>
-  <si>
-    <t>493/2017</t>
-  </si>
-  <si>
-    <t>267/2017</t>
-  </si>
-  <si>
-    <t>183/2018</t>
-  </si>
-  <si>
-    <t>891/2017</t>
-  </si>
-  <si>
-    <t>1549/2017</t>
-  </si>
-  <si>
-    <t>168/2018</t>
-  </si>
-  <si>
-    <t>254/2018</t>
-  </si>
-  <si>
-    <t>146/2018</t>
-  </si>
-  <si>
-    <t>1576/2017</t>
-  </si>
-  <si>
-    <t>1330/2017</t>
-  </si>
-  <si>
-    <t>145/2018</t>
-  </si>
-  <si>
-    <t>1501/2017</t>
-  </si>
-  <si>
-    <t>171/2018</t>
-  </si>
-  <si>
-    <t>763/2017</t>
-  </si>
-  <si>
-    <t>323/2017</t>
-  </si>
-  <si>
-    <t>63/2018</t>
   </si>
 </sst>
 </file>
@@ -967,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2953,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3081,1104 +2936,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43265</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43265</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43265</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43265</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43265</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43264</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43263</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43263</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43263</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43263</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43258</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43258</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43258</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43258</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43258</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43258</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43257</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43256</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43256</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43256</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
-        <v>43256</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43223</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43223</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43223</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43223</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="1">
-        <v>43228</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="1">
-        <v>43228</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43228</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="1">
-        <v>43228</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="1">
-        <v>43228</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="1">
-        <v>43228</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="1">
-        <v>43228</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="1">
-        <v>43229</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="1">
-        <v>43229</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="1">
-        <v>43229</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="1">
-        <v>43229</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="1">
-        <v>43229</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1">
-        <v>43235</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1">
-        <v>43235</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="1">
-        <v>43235</v>
-      </c>
-      <c r="C41" s="2">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="1">
-        <v>43235</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="1">
-        <v>43235</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43237</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="1">
-        <v>43237</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="1">
-        <v>43237</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="1">
-        <v>43237</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="1">
-        <v>43237</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="1">
-        <v>43242</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B50" s="1">
-        <v>43242</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="1">
-        <v>43242</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="1">
-        <v>43242</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="1">
-        <v>43242</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="1">
-        <v>43242</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" s="1">
-        <v>43244</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56" s="1">
-        <v>43244</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" s="1">
-        <v>43244</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="1">
-        <v>43244</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" s="1">
-        <v>43244</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B60" s="1">
-        <v>43244</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="1">
-        <v>43249</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B62" s="1">
-        <v>43249</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B63" s="1">
-        <v>43249</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B64" s="1">
-        <v>43249</v>
-      </c>
-      <c r="C64" s="2">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B65" s="1">
-        <v>43249</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B66" s="1">
-        <v>43251</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="1">
-        <v>43251</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="1">
-        <v>43251</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B69" s="1">
-        <v>43251</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="1">
-        <v>43251</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" s="1">
-        <v>43251</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B72" s="1">
-        <v>43251</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>43325</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
     <sheet name="Editados" sheetId="3" r:id="rId2"/>
     <sheet name="Respaldo DDP" sheetId="4" r:id="rId3"/>
-    <sheet name="Formato entrega " sheetId="5" r:id="rId4"/>
-    <sheet name="Quemados" sheetId="2" r:id="rId5"/>
-    <sheet name="conteo audiencias" sheetId="6" r:id="rId6"/>
-    <sheet name="firmadas fuera de tiempo" sheetId="8" r:id="rId7"/>
+    <sheet name="Quemados" sheetId="2" r:id="rId4"/>
+    <sheet name="conteo audiencias" sheetId="6" r:id="rId5"/>
+    <sheet name="firmadas fuera de tiempo" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="189">
   <si>
     <t>Expediente</t>
   </si>
@@ -441,12 +440,6 @@
   </si>
   <si>
     <t>3 ARCHIVOS</t>
-  </si>
-  <si>
-    <t>Folio Firma</t>
-  </si>
-  <si>
-    <t>Fecha Audiencia</t>
   </si>
   <si>
     <t>330 GB</t>
@@ -2282,10 +2275,10 @@
         <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F4" s="1">
         <v>43322</v>
@@ -2302,10 +2295,10 @@
         <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1">
         <v>43322</v>
@@ -2321,38 +2314,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -2926,7 +2890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -3059,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
@@ -3077,16 +3041,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
-        <v>145</v>
-      </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3343,7 +3307,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20" s="1">
         <v>43256</v>
@@ -3357,7 +3321,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21" s="1">
         <v>43256</v>
@@ -3385,7 +3349,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1">
         <v>43223</v>
@@ -3399,7 +3363,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1">
         <v>43223</v>
@@ -3413,7 +3377,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1">
         <v>43223</v>
@@ -3427,7 +3391,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1">
         <v>43223</v>
@@ -3441,7 +3405,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1">
         <v>43228</v>
@@ -3455,7 +3419,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="1">
         <v>43228</v>
@@ -3469,7 +3433,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B29" s="1">
         <v>43228</v>
@@ -3483,7 +3447,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B30" s="1">
         <v>43228</v>
@@ -3497,7 +3461,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B31" s="1">
         <v>43228</v>
@@ -3506,12 +3470,12 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B32" s="1">
         <v>43228</v>
@@ -3539,7 +3503,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B34" s="1">
         <v>43229</v>
@@ -3553,7 +3517,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1">
         <v>43229</v>
@@ -3567,7 +3531,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B36" s="1">
         <v>43229</v>
@@ -3581,7 +3545,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B37" s="1">
         <v>43229</v>
@@ -3637,7 +3601,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1">
         <v>43235</v>
@@ -3651,7 +3615,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B42" s="1">
         <v>43235</v>
@@ -3665,7 +3629,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B43" s="1">
         <v>43235</v>
@@ -3679,7 +3643,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B44" s="1">
         <v>43237</v>
@@ -3693,7 +3657,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B45" s="1">
         <v>43237</v>
@@ -3707,7 +3671,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B46" s="1">
         <v>43237</v>
@@ -3721,7 +3685,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B47" s="1">
         <v>43237</v>
@@ -3735,7 +3699,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B48" s="1">
         <v>43237</v>
@@ -3744,12 +3708,12 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B49" s="1">
         <v>43242</v>
@@ -3763,7 +3727,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B50" s="1">
         <v>43242</v>
@@ -3786,12 +3750,12 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B52" s="1">
         <v>43242</v>
@@ -3814,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -3833,7 +3797,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B55" s="1">
         <v>43244</v>
@@ -3847,7 +3811,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B56" s="1">
         <v>43244</v>
@@ -3861,7 +3825,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B57" s="1">
         <v>43244</v>
@@ -3875,7 +3839,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B58" s="1">
         <v>43244</v>
@@ -3889,7 +3853,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B59" s="1">
         <v>43244</v>
@@ -3903,7 +3867,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B60" s="1">
         <v>43244</v>
@@ -3917,7 +3881,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B61" s="1">
         <v>43249</v>
@@ -3931,7 +3895,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B62" s="1">
         <v>43249</v>
@@ -3945,7 +3909,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B63" s="1">
         <v>43249</v>
@@ -3959,7 +3923,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64" s="1">
         <v>43249</v>
@@ -3973,7 +3937,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B65" s="1">
         <v>43249</v>
@@ -3987,7 +3951,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B66" s="1">
         <v>43251</v>
@@ -4001,7 +3965,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B67" s="1">
         <v>43251</v>
@@ -4015,7 +3979,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B68" s="1">
         <v>43251</v>
@@ -4029,7 +3993,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B69" s="1">
         <v>43251</v>
@@ -4043,7 +4007,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B70" s="1">
         <v>43251</v>
@@ -4057,7 +4021,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B71" s="1">
         <v>43251</v>
@@ -4071,7 +4035,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="1">
         <v>43251</v>

--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Formato entrega " sheetId="5" r:id="rId4"/>
     <sheet name="Quemados" sheetId="2" r:id="rId5"/>
     <sheet name="conteo audiencias" sheetId="6" r:id="rId6"/>
+    <sheet name="firmadas fuera de tiempo" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
   <si>
     <t>Expediente</t>
   </si>
@@ -458,6 +459,150 @@
   </si>
   <si>
     <t>582 GB</t>
+  </si>
+  <si>
+    <t>dia agenda</t>
+  </si>
+  <si>
+    <t>descripción</t>
+  </si>
+  <si>
+    <t>cantidad de archivos</t>
+  </si>
+  <si>
+    <t>fecha firma</t>
+  </si>
+  <si>
+    <t>162/2017</t>
+  </si>
+  <si>
+    <t>298/2018</t>
+  </si>
+  <si>
+    <t>1683/2017</t>
+  </si>
+  <si>
+    <t>91/2018</t>
+  </si>
+  <si>
+    <t>1023/2017</t>
+  </si>
+  <si>
+    <t>1425/2017</t>
+  </si>
+  <si>
+    <t>20/2018</t>
+  </si>
+  <si>
+    <t>1152/2017</t>
+  </si>
+  <si>
+    <t>210/2018</t>
+  </si>
+  <si>
+    <t>18/2017</t>
+  </si>
+  <si>
+    <t>834/2017</t>
+  </si>
+  <si>
+    <t>no esta agendado</t>
+  </si>
+  <si>
+    <t>1404/2017</t>
+  </si>
+  <si>
+    <t>1281/2017</t>
+  </si>
+  <si>
+    <t>1597/2017</t>
+  </si>
+  <si>
+    <t>167/2018</t>
+  </si>
+  <si>
+    <t>169/2018</t>
+  </si>
+  <si>
+    <t>886/2017</t>
+  </si>
+  <si>
+    <t>442/2017</t>
+  </si>
+  <si>
+    <t>794/2017</t>
+  </si>
+  <si>
+    <t>247/2017</t>
+  </si>
+  <si>
+    <t>67/2018</t>
+  </si>
+  <si>
+    <t>133/2016</t>
+  </si>
+  <si>
+    <t>1647/2017</t>
+  </si>
+  <si>
+    <t>197/2017</t>
+  </si>
+  <si>
+    <t>164/2018</t>
+  </si>
+  <si>
+    <t>1608/2017</t>
+  </si>
+  <si>
+    <t>168/2016</t>
+  </si>
+  <si>
+    <t>493/2017</t>
+  </si>
+  <si>
+    <t>267/2017</t>
+  </si>
+  <si>
+    <t>183/2018</t>
+  </si>
+  <si>
+    <t>891/2017</t>
+  </si>
+  <si>
+    <t>1549/2017</t>
+  </si>
+  <si>
+    <t>168/2018</t>
+  </si>
+  <si>
+    <t>254/2018</t>
+  </si>
+  <si>
+    <t>146/2018</t>
+  </si>
+  <si>
+    <t>1576/2017</t>
+  </si>
+  <si>
+    <t>1330/2017</t>
+  </si>
+  <si>
+    <t>145/2018</t>
+  </si>
+  <si>
+    <t>1501/2017</t>
+  </si>
+  <si>
+    <t>171/2018</t>
+  </si>
+  <si>
+    <t>763/2017</t>
+  </si>
+  <si>
+    <t>323/2017</t>
+  </si>
+  <si>
+    <t>63/2018</t>
   </si>
 </sst>
 </file>
@@ -822,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2808,7 +2953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2936,4 +3081,1104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43265</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43265</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43265</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43265</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43265</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43264</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43263</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43263</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43263</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43263</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43258</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43258</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43258</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43258</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43258</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43258</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43257</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43256</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43256</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43256</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43256</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43223</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43223</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43223</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43223</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43228</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43228</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43228</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43228</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43228</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43228</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43228</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43229</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43229</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43229</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43229</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43229</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43237</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43237</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43237</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43237</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43237</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43242</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43242</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43242</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43242</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43242</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43242</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43249</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43325</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -645,23 +645,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,315 +963,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="48.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>43265</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>0.41875000000000001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>43265</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>0.4375</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>0.4694444444444445</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>43265</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>0.4597222222222222</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>43265</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>0.51111111111111118</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>43265</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>0.54097222222222219</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>43264</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>0.50277777777777777</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>43263</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>0.41875000000000001</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>43263</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>0.4375</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>43263</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>0.50763888888888886</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>43263</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>0.58263888888888882</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>43258</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>0.4375</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>0.44722222222222219</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>43258</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>0.46597222222222223</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>43258</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>43258</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>0.5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>0.50624999999999998</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>43258</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>0.52430555555555558</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>43258</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>0.5444444444444444</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
         <v>43277</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>0.42222222222222222</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1261,18 +1314,19 @@
       <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
         <v>43277</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>0.4375</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>0.44791666666666669</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -1281,18 +1335,19 @@
       <c r="E19" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
         <v>43277</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>0.48472222222222222</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -1301,18 +1356,19 @@
       <c r="E20" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
         <v>43277</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>0.50208333333333333</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1328,14 +1384,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
         <v>43277</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>0.55555555555555558</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -1351,31 +1407,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
         <v>43279</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>0.4291666666666667</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
         <v>43279</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>0.4375</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>0.44236111111111115</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -1384,18 +1442,19 @@
       <c r="E24" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
         <v>43279</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>0.50069444444444444</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -1404,18 +1463,19 @@
       <c r="E25" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
+    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
         <v>43279</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>0.5</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>0.51041666666666663</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -1424,18 +1484,19 @@
       <c r="E26" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
         <v>43279</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>0.53680555555555554</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -1444,18 +1505,19 @@
       <c r="E27" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
         <v>43279</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="8">
         <v>0.5625</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>0.57777777777777783</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -1464,18 +1526,19 @@
       <c r="E28" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
         <v>43284</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="8">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>0.40138888888888885</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -1484,18 +1547,19 @@
       <c r="E29" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10">
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
         <v>43284</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>0.43055555555555558</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -1504,18 +1568,19 @@
       <c r="E30" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
         <v>43284</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <v>0.48472222222222222</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -1524,18 +1589,19 @@
       <c r="E31" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
+    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
         <v>43284</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>0.5625</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <v>0.56666666666666665</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -1544,18 +1610,19 @@
       <c r="E32" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
         <v>43284</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="8">
         <v>0.4375</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>0.4548611111111111</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -1564,18 +1631,19 @@
       <c r="E33" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10">
+    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
         <v>43284</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="8">
         <v>0.52500000000000002</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -1584,18 +1652,19 @@
       <c r="E34" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="10">
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
         <v>43286</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="8">
         <v>0.41805555555555557</v>
       </c>
       <c r="D35" s="9" t="s">
@@ -1604,18 +1673,19 @@
       <c r="E35" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="10">
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
         <v>43286</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="8">
         <v>0.4375</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <v>0.45902777777777781</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -1624,18 +1694,19 @@
       <c r="E36" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="10">
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
         <v>43286</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>0.47222222222222227</v>
       </c>
       <c r="D37" s="9" t="s">
@@ -1644,18 +1715,19 @@
       <c r="E37" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10">
+    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
         <v>43286</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="8">
         <v>0.5</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="8">
         <v>0.61805555555555558</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -1664,10 +1736,11 @@
       <c r="E38" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1681,71 +1754,76 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>43272</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.42291666666666666</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>43272</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>0.44305555555555554</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1754,52 +1832,63 @@
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>43272</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>0.52638888888888891</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>43272</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>0.4916666666666667</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>43272</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>0.58819444444444446</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1808,172 +1897,201 @@
       <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>43270</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>0.42222222222222222</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="10">
+      <c r="F7" s="9"/>
+      <c r="G7" s="7">
         <v>43290</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>43270</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>0.48402777777777778</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="10">
+      <c r="F8" s="9"/>
+      <c r="G8" s="7">
         <v>43290</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>43270</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>0.5</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>0.54027777777777775</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>43270</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>0.44305555555555554</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="10">
+      <c r="F10" s="9"/>
+      <c r="G10" s="7">
         <v>43290</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>43270</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>0.4597222222222222</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>43291</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>0.42083333333333334</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>43291</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>0.44305555555555554</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>43291</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>0.48541666666666666</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>43291</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>0.50694444444444442</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -1982,52 +2100,63 @@
       <c r="F15" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>43291</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>0.53125</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>43291</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>0.5</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>0.51250000000000007</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>43293</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -2036,142 +2165,177 @@
       <c r="F18" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>43293</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>0.40138888888888885</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>43293</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>0.4201388888888889</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>43293</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>0.46111111111111108</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>43293</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>0.5</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>0.50416666666666665</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>43293</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>0.44444444444444442</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>43293</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>0.48888888888888887</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>43294</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>0.44444444444444442</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>43298</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>0.43888888888888888</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>135</v>
       </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2183,7 +2347,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2196,114 +2360,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>826</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>196</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>43292</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>43292</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>822</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>196</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>43292</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>855</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>230</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>43322</v>
       </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>851</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>230</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>43322</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2316,574 +2481,677 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.90625" style="3"/>
-    <col min="7" max="7" width="22.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.90625" style="3"/>
-    <col min="10" max="10" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="24.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.90625" style="3"/>
+    <col min="1" max="1" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.90625" style="1"/>
+    <col min="7" max="7" width="22.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.90625" style="1"/>
+    <col min="10" max="10" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>43272</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="11">
         <v>43256</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="13">
         <v>0.5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="13">
         <v>0.5180555555555556</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>43273</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="11">
         <v>43235</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="13">
         <v>0.45</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>43273</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>43242</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="13">
         <v>0.5625</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="13">
         <v>0.56527777777777777</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>43272</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>43257</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="13">
         <v>0.57847222222222217</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>43273</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="11">
         <v>43265</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="13">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="14">
         <v>43273</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="14">
         <v>43256</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="15">
         <v>0.4375</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
         <v>43278</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="11">
         <v>43265</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="13">
         <v>0.4375</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="13">
         <v>0.4694444444444445</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>43283</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="11">
         <v>43279</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="13">
         <v>0.5625</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="13">
         <v>0.57777777777777783</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>43283</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="11">
         <v>43265</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="13">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="13">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>43285</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="11">
         <v>43265</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="13">
         <v>0.4375</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="13">
         <v>0.4694444444444445</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="12" t="s">
         <v>72</v>
       </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="14">
         <v>43283</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="14">
         <v>43279</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="15">
         <v>0.5625</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="15">
         <v>0.57777777777777783</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="14">
         <v>43290</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="14">
         <v>43270</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="15">
         <v>0.4375</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="10" t="s">
         <v>100</v>
       </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="14">
         <v>43290</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="14">
         <v>43270</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="15">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="10" t="s">
         <v>100</v>
       </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="14">
         <v>43290</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="14">
         <v>43270</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="10" t="s">
         <v>100</v>
       </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="14">
         <v>43290</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="14">
         <v>43264</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="15">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
         <v>43290</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="14">
         <v>43279</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="15">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
         <v>43294</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="14">
         <v>43293</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="15">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="15">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
         <v>43294</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="14">
         <v>43258</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="15">
         <v>0.5</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="15">
         <v>0.50624999999999998</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
         <v>43297</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="14">
         <v>43272</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="15">
         <v>0.4375</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="15">
         <v>0.44305555555555554</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
         <v>43298</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="14">
         <v>43216</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="15">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="15">
         <v>0.51944444444444449</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="10" t="s">
         <v>73</v>
       </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2895,125 +3163,126 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1" s="5">
         <v>43270</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>43272</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>43277</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>43279</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>43284</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>43286</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>43291</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>43293</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>43294</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>43298</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>43314</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>43319</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>43321</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>43326</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
         <f>SUM(B1:B14)</f>
         <v>68</v>
       </c>
@@ -3027,1025 +3296,1097 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>43265</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>43325</v>
-      </c>
+      <c r="D2" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>43265</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>43265</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>43265</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>43265</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>43264</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>43263</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>43263</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>43263</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>43263</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>43258</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>43258</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>43258</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>43258</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>43258</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>43258</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>43257</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
-        <v>43325</v>
-      </c>
+      <c r="D18" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>43256</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>43256</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>43256</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>43256</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>43223</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>43223</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>43223</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>43223</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="5">
         <v>43228</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
         <v>43228</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
         <v>43228</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
         <v>43228</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="5">
         <v>43228</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="5">
         <v>43228</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="5">
         <v>43228</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="5">
         <v>43229</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="5">
         <v>43229</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="5">
         <v>43229</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="5">
         <v>43229</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>43229</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="5">
         <v>43235</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="5">
         <v>43235</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="5">
         <v>43235</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>2</v>
       </c>
-      <c r="D41" s="1">
-        <v>43325</v>
-      </c>
+      <c r="D41" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="5">
         <v>43235</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="5">
         <v>43235</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="5">
         <v>43237</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="5">
         <v>43237</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="5">
         <v>43237</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="5">
         <v>43237</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="5">
         <v>43237</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="5">
         <v>43242</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="5">
         <v>43242</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="5">
         <v>43242</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="5">
         <v>43242</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="5">
         <v>43242</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="5">
         <v>43242</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="5">
         <v>43244</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="5">
         <v>43244</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="5">
         <v>43244</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="5">
         <v>43244</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="5">
         <v>43244</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="5">
         <v>43244</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="5">
         <v>43249</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="5">
         <v>43249</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="5">
         <v>43249</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="5">
         <v>43249</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="4">
         <v>2</v>
       </c>
-      <c r="D64" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="D64" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="5">
         <v>43249</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="5">
         <v>43251</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="5">
         <v>43251</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="5">
         <v>43251</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="5">
         <v>43251</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="5">
         <v>43251</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="5">
         <v>43251</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="5">
         <v>43251</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5">
+        <v>43325</v>
+      </c>
+      <c r="E72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -664,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -681,6 +681,7 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,14 +964,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="48.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.90625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1279,7 +1281,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>43258</v>
       </c>
@@ -1298,7 +1300,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>43277</v>
       </c>
@@ -1318,8 +1320,11 @@
       <c r="G18" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>43277</v>
       </c>
@@ -1339,8 +1344,11 @@
       <c r="G19" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>43277</v>
       </c>
@@ -1360,8 +1368,11 @@
       <c r="G20" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>43277</v>
       </c>
@@ -1383,8 +1394,11 @@
       <c r="G21" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>43277</v>
       </c>
@@ -1406,8 +1420,11 @@
       <c r="G22" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>43279</v>
       </c>
@@ -1425,8 +1442,11 @@
       <c r="G23" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>43279</v>
       </c>
@@ -1446,8 +1466,11 @@
       <c r="G24" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>43279</v>
       </c>
@@ -1467,8 +1490,11 @@
       <c r="G25" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>43279</v>
       </c>
@@ -1488,8 +1514,11 @@
       <c r="G26" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>43279</v>
       </c>
@@ -1509,8 +1538,11 @@
       <c r="G27" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>43279</v>
       </c>
@@ -1530,8 +1562,11 @@
       <c r="G28" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>43284</v>
       </c>
@@ -1551,8 +1586,11 @@
       <c r="G29" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>43284</v>
       </c>
@@ -1572,8 +1610,11 @@
       <c r="G30" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>43284</v>
       </c>
@@ -1593,8 +1634,11 @@
       <c r="G31" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>43284</v>
       </c>
@@ -1614,6 +1658,9 @@
       <c r="G32" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
@@ -1635,6 +1682,9 @@
       <c r="G33" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
@@ -1656,6 +1706,9 @@
       <c r="G34" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
@@ -1677,6 +1730,9 @@
       <c r="G35" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
@@ -1698,6 +1754,9 @@
       <c r="G36" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
@@ -1719,6 +1778,9 @@
       <c r="G37" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
@@ -1740,7 +1802,9 @@
       <c r="G38" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1751,19 +1815,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="10.90625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1792,7 +1857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
@@ -1812,8 +1877,13 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -1835,8 +1905,13 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
@@ -1856,8 +1931,13 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -1877,8 +1957,13 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -1900,8 +1985,13 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
@@ -1925,8 +2015,13 @@
         <v>17</v>
       </c>
       <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
@@ -1950,8 +2045,13 @@
         <v>17</v>
       </c>
       <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
@@ -1971,8 +2071,13 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
@@ -1996,8 +2101,13 @@
         <v>17</v>
       </c>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
@@ -2017,8 +2127,13 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>101</v>
       </c>
@@ -2038,8 +2153,13 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>102</v>
       </c>
@@ -2059,8 +2179,13 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>103</v>
       </c>
@@ -2080,8 +2205,13 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>104</v>
       </c>
@@ -2103,8 +2233,13 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>105</v>
       </c>
@@ -2124,8 +2259,13 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>107</v>
       </c>
@@ -2145,8 +2285,13 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
@@ -2168,8 +2313,13 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>122</v>
       </c>
@@ -2189,8 +2339,13 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>123</v>
       </c>
@@ -2210,8 +2365,13 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>124</v>
       </c>
@@ -2231,8 +2391,13 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>126</v>
       </c>
@@ -2252,8 +2417,13 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>127</v>
       </c>
@@ -2273,8 +2443,13 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>128</v>
       </c>
@@ -2294,8 +2469,13 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>95</v>
       </c>
@@ -2315,8 +2495,13 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>134</v>
       </c>
@@ -2336,6 +2521,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2347,7 +2537,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2479,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2495,10 +2685,11 @@
     <col min="11" max="11" width="27.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.54296875" style="1" customWidth="1"/>
     <col min="13" max="13" width="31.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.90625" style="1"/>
+    <col min="14" max="15" width="10.90625" style="16"/>
+    <col min="16" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -2537,7 +2728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>43272</v>
       </c>
@@ -2569,8 +2760,10 @@
       <c r="M2" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>43273</v>
       </c>
@@ -2598,8 +2791,10 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>43273</v>
       </c>
@@ -2627,8 +2822,10 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>43272</v>
       </c>
@@ -2666,8 +2863,10 @@
       <c r="M5" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>43273</v>
       </c>
@@ -2693,8 +2892,10 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>43273</v>
       </c>
@@ -2721,7 +2922,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>43278</v>
       </c>
@@ -2753,8 +2954,10 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>43283</v>
       </c>
@@ -2784,8 +2987,10 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>43283</v>
       </c>
@@ -2815,8 +3020,10 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>43285</v>
       </c>
@@ -2848,8 +3055,10 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>43283</v>
       </c>
@@ -2880,7 +3089,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>43290</v>
       </c>
@@ -2909,7 +3118,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>43290</v>
       </c>
@@ -2938,7 +3147,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>43290</v>
       </c>
@@ -2967,7 +3176,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>43290</v>
       </c>

--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="253">
   <si>
     <t>Expediente</t>
   </si>
@@ -596,6 +596,198 @@
   </si>
   <si>
     <t>63/2018</t>
+  </si>
+  <si>
+    <t>1323/2017</t>
+  </si>
+  <si>
+    <t>114/2018</t>
+  </si>
+  <si>
+    <t>138/2018</t>
+  </si>
+  <si>
+    <t>1558/2017</t>
+  </si>
+  <si>
+    <t>494/2017</t>
+  </si>
+  <si>
+    <t>191/2017</t>
+  </si>
+  <si>
+    <t>1103/2017</t>
+  </si>
+  <si>
+    <t>171/2017</t>
+  </si>
+  <si>
+    <t>129/2016</t>
+  </si>
+  <si>
+    <t>1358/2017</t>
+  </si>
+  <si>
+    <t>162/2016</t>
+  </si>
+  <si>
+    <t>191/2016</t>
+  </si>
+  <si>
+    <t>37/2018</t>
+  </si>
+  <si>
+    <t>1691/2017</t>
+  </si>
+  <si>
+    <t>985/2017</t>
+  </si>
+  <si>
+    <t>119/2017</t>
+  </si>
+  <si>
+    <t>38/2018</t>
+  </si>
+  <si>
+    <t>80/2018</t>
+  </si>
+  <si>
+    <t>19/2018</t>
+  </si>
+  <si>
+    <t>1651/2017</t>
+  </si>
+  <si>
+    <t>45/2018</t>
+  </si>
+  <si>
+    <t>125/2018</t>
+  </si>
+  <si>
+    <t>431/2017</t>
+  </si>
+  <si>
+    <t>1374/2017</t>
+  </si>
+  <si>
+    <t>916/2017</t>
+  </si>
+  <si>
+    <t>17/2018</t>
+  </si>
+  <si>
+    <t>179/2017</t>
+  </si>
+  <si>
+    <t>215/2016</t>
+  </si>
+  <si>
+    <t>129/2018</t>
+  </si>
+  <si>
+    <t>1685/2017</t>
+  </si>
+  <si>
+    <t>1623/2017</t>
+  </si>
+  <si>
+    <t>487/2017</t>
+  </si>
+  <si>
+    <t>859/2017</t>
+  </si>
+  <si>
+    <t>416/2017</t>
+  </si>
+  <si>
+    <t>1296/2017</t>
+  </si>
+  <si>
+    <t>1494/2017</t>
+  </si>
+  <si>
+    <t>22/2018</t>
+  </si>
+  <si>
+    <t>228/2017</t>
+  </si>
+  <si>
+    <t>987/2017</t>
+  </si>
+  <si>
+    <t>1123/2017</t>
+  </si>
+  <si>
+    <t>143/2016</t>
+  </si>
+  <si>
+    <t>119/2016</t>
+  </si>
+  <si>
+    <t>1646/2017</t>
+  </si>
+  <si>
+    <t>62/2017</t>
+  </si>
+  <si>
+    <t>1682/2017</t>
+  </si>
+  <si>
+    <t>60/2018</t>
+  </si>
+  <si>
+    <t>376/2017</t>
+  </si>
+  <si>
+    <t>1669/2017</t>
+  </si>
+  <si>
+    <t>517/2017</t>
+  </si>
+  <si>
+    <t>501/2017</t>
+  </si>
+  <si>
+    <t>843/2017</t>
+  </si>
+  <si>
+    <t>1181/2017</t>
+  </si>
+  <si>
+    <t>186/2017</t>
+  </si>
+  <si>
+    <t>50/2018</t>
+  </si>
+  <si>
+    <t>54/2018</t>
+  </si>
+  <si>
+    <t>912/2017</t>
+  </si>
+  <si>
+    <t>842/2017</t>
+  </si>
+  <si>
+    <t>583/2017</t>
+  </si>
+  <si>
+    <t>1637/2017</t>
+  </si>
+  <si>
+    <t>1533/2017</t>
+  </si>
+  <si>
+    <t>1359/2017</t>
+  </si>
+  <si>
+    <t>12/2017</t>
+  </si>
+  <si>
+    <t>06/2018</t>
+  </si>
+  <si>
+    <t>11/2018</t>
   </si>
 </sst>
 </file>
@@ -637,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -645,11 +837,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -662,6 +869,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2316,7 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -3025,10 +3235,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3037,1017 +3247,2243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>43265</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>43325</v>
-      </c>
+      <c r="D2" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <v>43265</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>43265</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <v>43265</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <v>43265</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <v>43264</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <v>43263</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <v>43263</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="13">
         <v>43263</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="13">
         <v>43263</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="13">
         <v>43258</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="13">
         <v>43258</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="13">
         <v>43258</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>43258</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="13">
         <v>43258</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C16" s="12">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="13">
         <v>43258</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>43257</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="12">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
-        <v>43325</v>
-      </c>
+      <c r="D18" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="13">
         <v>43256</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="13">
         <v>43256</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="13">
         <v>43256</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>43256</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="13">
         <v>43223</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="13">
         <v>43223</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="13">
         <v>43223</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="13">
         <v>43223</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="13">
         <v>43228</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="13">
         <v>43228</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="13">
         <v>43228</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="13">
         <v>43228</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="13">
         <v>43228</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="13">
         <v>43228</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="13">
         <v>43228</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C33" s="12">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="13">
         <v>43229</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="13">
         <v>43229</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="13">
         <v>43229</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="13">
         <v>43229</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="13">
         <v>43229</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="13">
         <v>43235</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="13">
         <v>43235</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="13">
         <v>43235</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="12">
         <v>2</v>
       </c>
-      <c r="D41" s="1">
-        <v>43325</v>
-      </c>
+      <c r="D41" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="13">
         <v>43235</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C42" s="12">
+        <v>1</v>
+      </c>
+      <c r="D42" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="13">
         <v>43235</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="13">
         <v>43237</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C44" s="12">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="13">
         <v>43237</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C45" s="12">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="13">
         <v>43237</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="13">
         <v>43237</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="13">
         <v>43237</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="13">
         <v>43242</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="13">
         <v>43242</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="13">
         <v>43242</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="13">
         <v>43242</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="13">
         <v>43242</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="12">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="13">
         <v>43242</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="13">
         <v>43244</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C55" s="12">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="13">
         <v>43244</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+      <c r="D56" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="13">
         <v>43244</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="D57" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="13">
         <v>43244</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C58" s="12">
+        <v>1</v>
+      </c>
+      <c r="D58" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="13">
         <v>43244</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="D59" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="13">
         <v>43244</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C60" s="12">
+        <v>1</v>
+      </c>
+      <c r="D60" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="13">
         <v>43249</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C61" s="12">
+        <v>1</v>
+      </c>
+      <c r="D61" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="13">
         <v>43249</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C62" s="12">
+        <v>1</v>
+      </c>
+      <c r="D62" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="13">
         <v>43249</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C63" s="12">
+        <v>1</v>
+      </c>
+      <c r="D63" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="13">
         <v>43249</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="12">
         <v>2</v>
       </c>
-      <c r="D64" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="D64" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="13">
         <v>43249</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="C65" s="12">
+        <v>1</v>
+      </c>
+      <c r="D65" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="13">
         <v>43251</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="C66" s="12">
+        <v>1</v>
+      </c>
+      <c r="D66" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="13">
         <v>43251</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="C67" s="12">
+        <v>1</v>
+      </c>
+      <c r="D67" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="13">
         <v>43251</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="C68" s="12">
+        <v>1</v>
+      </c>
+      <c r="D68" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="13">
         <v>43251</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="C69" s="12">
+        <v>1</v>
+      </c>
+      <c r="D69" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="13">
         <v>43251</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="C70" s="12">
+        <v>1</v>
+      </c>
+      <c r="D70" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="13">
         <v>43251</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="C71" s="12">
+        <v>1</v>
+      </c>
+      <c r="D71" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="13">
         <v>43251</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>43325</v>
-      </c>
+      <c r="C72" s="12">
+        <v>1</v>
+      </c>
+      <c r="D72" s="13">
+        <v>43325</v>
+      </c>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="13">
+        <v>43192</v>
+      </c>
+      <c r="C73" s="12">
+        <v>3</v>
+      </c>
+      <c r="D73" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="13">
+        <v>43193</v>
+      </c>
+      <c r="C74" s="12">
+        <v>1</v>
+      </c>
+      <c r="D74" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="13">
+        <v>43193</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="13">
+        <v>43193</v>
+      </c>
+      <c r="C76" s="12">
+        <v>2</v>
+      </c>
+      <c r="D76" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="13">
+        <v>43193</v>
+      </c>
+      <c r="C77" s="12">
+        <v>1</v>
+      </c>
+      <c r="D77" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="13">
+        <v>43193</v>
+      </c>
+      <c r="C78" s="12">
+        <v>1</v>
+      </c>
+      <c r="D78" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="13">
+        <v>43195</v>
+      </c>
+      <c r="C79" s="12">
+        <v>1</v>
+      </c>
+      <c r="D79" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="13">
+        <v>43195</v>
+      </c>
+      <c r="C80" s="12">
+        <v>1</v>
+      </c>
+      <c r="D80" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="13">
+        <v>43195</v>
+      </c>
+      <c r="C81" s="12">
+        <v>1</v>
+      </c>
+      <c r="D81" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" s="13">
+        <v>43195</v>
+      </c>
+      <c r="C82" s="12">
+        <v>2</v>
+      </c>
+      <c r="D82" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="13">
+        <v>43200</v>
+      </c>
+      <c r="C83" s="12">
+        <v>1</v>
+      </c>
+      <c r="D83" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B84" s="13">
+        <v>43200</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="13">
+        <v>43200</v>
+      </c>
+      <c r="C85" s="12">
+        <v>1</v>
+      </c>
+      <c r="D85" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="13">
+        <v>43202</v>
+      </c>
+      <c r="C86" s="12">
+        <v>1</v>
+      </c>
+      <c r="D86" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="13">
+        <v>43202</v>
+      </c>
+      <c r="C87" s="12">
+        <v>1</v>
+      </c>
+      <c r="D87" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E87" s="12"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="13">
+        <v>43202</v>
+      </c>
+      <c r="C88" s="12">
+        <v>1</v>
+      </c>
+      <c r="D88" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E88" s="12"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="13">
+        <v>43202</v>
+      </c>
+      <c r="C89" s="12">
+        <v>1</v>
+      </c>
+      <c r="D89" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E89" s="12"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="13">
+        <v>43202</v>
+      </c>
+      <c r="C90" s="12">
+        <v>1</v>
+      </c>
+      <c r="D90" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E90" s="12"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" s="13">
+        <v>43202</v>
+      </c>
+      <c r="C91" s="12">
+        <v>1</v>
+      </c>
+      <c r="D91" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E91" s="12"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="13">
+        <v>43207</v>
+      </c>
+      <c r="C92" s="12">
+        <v>1</v>
+      </c>
+      <c r="D92" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E92" s="12"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" s="13">
+        <v>43207</v>
+      </c>
+      <c r="C93" s="12">
+        <v>1</v>
+      </c>
+      <c r="D93" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E93" s="12"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B94" s="13">
+        <v>43207</v>
+      </c>
+      <c r="C94" s="12">
+        <v>1</v>
+      </c>
+      <c r="D94" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="13">
+        <v>43207</v>
+      </c>
+      <c r="C95" s="12">
+        <v>2</v>
+      </c>
+      <c r="D95" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" s="13">
+        <v>43209</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="13">
+        <v>43209</v>
+      </c>
+      <c r="C97" s="12">
+        <v>1</v>
+      </c>
+      <c r="D97" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="13">
+        <v>43209</v>
+      </c>
+      <c r="C98" s="12">
+        <v>1</v>
+      </c>
+      <c r="D98" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="13">
+        <v>43209</v>
+      </c>
+      <c r="C99" s="12">
+        <v>1</v>
+      </c>
+      <c r="D99" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="13">
+        <v>43209</v>
+      </c>
+      <c r="C100" s="12">
+        <v>1</v>
+      </c>
+      <c r="D100" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E100" s="12"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" s="13">
+        <v>43209</v>
+      </c>
+      <c r="C101" s="12">
+        <v>1</v>
+      </c>
+      <c r="D101" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" s="13">
+        <v>43214</v>
+      </c>
+      <c r="C102" s="12">
+        <v>1</v>
+      </c>
+      <c r="D102" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" s="13">
+        <v>43214</v>
+      </c>
+      <c r="C103" s="12">
+        <v>1</v>
+      </c>
+      <c r="D103" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="13">
+        <v>43214</v>
+      </c>
+      <c r="C104" s="12">
+        <v>1</v>
+      </c>
+      <c r="D104" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="13">
+        <v>43214</v>
+      </c>
+      <c r="C105" s="12">
+        <v>1</v>
+      </c>
+      <c r="D105" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="13">
+        <v>43216</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B107" s="13">
+        <v>43216</v>
+      </c>
+      <c r="C107" s="12">
+        <v>1</v>
+      </c>
+      <c r="D107" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="13">
+        <v>43216</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" s="13">
+        <v>43216</v>
+      </c>
+      <c r="C109" s="12">
+        <v>3</v>
+      </c>
+      <c r="D109" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="13">
+        <v>43216</v>
+      </c>
+      <c r="C110" s="12">
+        <v>1</v>
+      </c>
+      <c r="D110" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="13">
+        <v>43216</v>
+      </c>
+      <c r="C111" s="12">
+        <v>1</v>
+      </c>
+      <c r="D111" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" s="13">
+        <v>43216</v>
+      </c>
+      <c r="C112" s="12">
+        <v>1</v>
+      </c>
+      <c r="D112" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="13">
+        <v>43160</v>
+      </c>
+      <c r="C113" s="12">
+        <v>1</v>
+      </c>
+      <c r="D113" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="13">
+        <v>43160</v>
+      </c>
+      <c r="C114" s="12">
+        <v>1</v>
+      </c>
+      <c r="D114" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E114" s="12"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" s="13">
+        <v>43160</v>
+      </c>
+      <c r="C115" s="12">
+        <v>1</v>
+      </c>
+      <c r="D115" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="13">
+        <v>43160</v>
+      </c>
+      <c r="C116" s="12">
+        <v>2</v>
+      </c>
+      <c r="D116" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" s="13">
+        <v>43165</v>
+      </c>
+      <c r="C117" s="12">
+        <v>1</v>
+      </c>
+      <c r="D117" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="13">
+        <v>43165</v>
+      </c>
+      <c r="C118" s="12">
+        <v>1</v>
+      </c>
+      <c r="D118" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B119" s="13">
+        <v>43165</v>
+      </c>
+      <c r="C119" s="12">
+        <v>1</v>
+      </c>
+      <c r="D119" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B120" s="13">
+        <v>43165</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="13">
+        <v>43165</v>
+      </c>
+      <c r="C121" s="12">
+        <v>1</v>
+      </c>
+      <c r="D121" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E121" s="12"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B122" s="13">
+        <v>43165</v>
+      </c>
+      <c r="C122" s="12">
+        <v>1</v>
+      </c>
+      <c r="D122" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E122" s="12"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B123" s="13">
+        <v>43167</v>
+      </c>
+      <c r="C123" s="12">
+        <v>1</v>
+      </c>
+      <c r="D123" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B124" s="13">
+        <v>43167</v>
+      </c>
+      <c r="C124" s="12">
+        <v>1</v>
+      </c>
+      <c r="D124" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125" s="13">
+        <v>43167</v>
+      </c>
+      <c r="C125" s="12">
+        <v>1</v>
+      </c>
+      <c r="D125" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" s="13">
+        <v>43167</v>
+      </c>
+      <c r="C126" s="12">
+        <v>1</v>
+      </c>
+      <c r="D126" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E126" s="12"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" s="13">
+        <v>43167</v>
+      </c>
+      <c r="C127" s="12">
+        <v>1</v>
+      </c>
+      <c r="D127" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B128" s="13">
+        <v>43172</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" s="13">
+        <v>43172</v>
+      </c>
+      <c r="C129" s="12">
+        <v>1</v>
+      </c>
+      <c r="D129" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" s="13">
+        <v>43172</v>
+      </c>
+      <c r="C130" s="12">
+        <v>1</v>
+      </c>
+      <c r="D130" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E130" s="12"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="13">
+        <v>43172</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B132" s="13">
+        <v>43172</v>
+      </c>
+      <c r="C132" s="12">
+        <v>1</v>
+      </c>
+      <c r="D132" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E132" s="12"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B133" s="13">
+        <v>43172</v>
+      </c>
+      <c r="C133" s="12">
+        <v>1</v>
+      </c>
+      <c r="D133" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E133" s="12"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" s="13">
+        <v>43174</v>
+      </c>
+      <c r="C134" s="12">
+        <v>1</v>
+      </c>
+      <c r="D134" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B135" s="13">
+        <v>43174</v>
+      </c>
+      <c r="C135" s="12">
+        <v>1</v>
+      </c>
+      <c r="D135" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B136" s="13">
+        <v>43174</v>
+      </c>
+      <c r="C136" s="12">
+        <v>1</v>
+      </c>
+      <c r="D136" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B137" s="13">
+        <v>43174</v>
+      </c>
+      <c r="C137" s="12">
+        <v>1</v>
+      </c>
+      <c r="D137" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B138" s="13">
+        <v>43174</v>
+      </c>
+      <c r="C138" s="12">
+        <v>1</v>
+      </c>
+      <c r="D138" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="13">
+        <v>43174</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="13">
+        <v>43179</v>
+      </c>
+      <c r="C140" s="12">
+        <v>1</v>
+      </c>
+      <c r="D140" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B141" s="13">
+        <v>43179</v>
+      </c>
+      <c r="C141" s="12">
+        <v>1</v>
+      </c>
+      <c r="D141" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B142" s="13">
+        <v>43179</v>
+      </c>
+      <c r="C142" s="12">
+        <v>1</v>
+      </c>
+      <c r="D142" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B143" s="13">
+        <v>43179</v>
+      </c>
+      <c r="C143" s="12">
+        <v>1</v>
+      </c>
+      <c r="D143" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B144" s="13">
+        <v>43179</v>
+      </c>
+      <c r="C144" s="12">
+        <v>1</v>
+      </c>
+      <c r="D144" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B145" s="13">
+        <v>43179</v>
+      </c>
+      <c r="C145" s="12">
+        <v>1</v>
+      </c>
+      <c r="D145" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146" s="13">
+        <v>43181</v>
+      </c>
+      <c r="C146" s="12">
+        <v>1</v>
+      </c>
+      <c r="D146" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B147" s="13">
+        <v>43181</v>
+      </c>
+      <c r="C147" s="12">
+        <v>1</v>
+      </c>
+      <c r="D147" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B148" s="13">
+        <v>43181</v>
+      </c>
+      <c r="C148" s="12">
+        <v>1</v>
+      </c>
+      <c r="D148" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B149" s="13">
+        <v>43181</v>
+      </c>
+      <c r="C149" s="12">
+        <v>1</v>
+      </c>
+      <c r="D149" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" s="13">
+        <v>43181</v>
+      </c>
+      <c r="C150" s="12">
+        <v>1</v>
+      </c>
+      <c r="D150" s="13">
+        <v>43334</v>
+      </c>
+      <c r="E150" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Quemados" sheetId="2" r:id="rId4"/>
     <sheet name="conteo audiencias" sheetId="6" r:id="rId5"/>
     <sheet name="firmadas fuera de tiempo" sheetId="8" r:id="rId6"/>
+    <sheet name="no agendados" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="253">
   <si>
     <t>Expediente</t>
   </si>
@@ -3237,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139:XFD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5486,4 +5487,196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43228</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43237</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43242</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43242</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="13">
+        <v>43193</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="13">
+        <v>43209</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="13">
+        <v>43216</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="13">
+        <v>43216</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="13">
+        <v>43165</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="13">
+        <v>43172</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="13">
+        <v>43172</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="13">
+        <v>43174</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -5494,7 +5494,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/relación 4 oral pendientes de subir al sistema.xlsx
+++ b/relación 4 oral pendientes de subir al sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="4920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Respaldo en Computadora" sheetId="1" r:id="rId1"/>
@@ -443,12 +443,6 @@
     <t>3 ARCHIVOS</t>
   </si>
   <si>
-    <t>330 GB</t>
-  </si>
-  <si>
-    <t>567 GB</t>
-  </si>
-  <si>
     <t>328 GB</t>
   </si>
   <si>
@@ -789,6 +783,12 @@
   </si>
   <si>
     <t>11/2018</t>
+  </si>
+  <si>
+    <t>337 GB</t>
+  </si>
+  <si>
+    <t>560 GB</t>
   </si>
 </sst>
 </file>
@@ -2393,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2480,19 +2480,19 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="C4">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="F4" s="1">
-        <v>43322</v>
+        <v>43335</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -2506,10 +2506,10 @@
         <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1">
         <v>43322</v>
@@ -3252,16 +3252,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3536,7 +3536,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B20" s="13">
         <v>43256</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="13">
         <v>43256</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" s="13">
         <v>43223</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" s="13">
         <v>43223</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="13">
         <v>43223</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B26" s="13">
         <v>43223</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B27" s="13">
         <v>43228</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" s="13">
         <v>43228</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B29" s="13">
         <v>43228</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" s="13">
         <v>43228</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B31" s="13">
         <v>43228</v>
@@ -3711,12 +3711,12 @@
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B32" s="13">
         <v>43228</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B34" s="13">
         <v>43229</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B35" s="13">
         <v>43229</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" s="13">
         <v>43229</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B37" s="13">
         <v>43229</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" s="13">
         <v>43235</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B42" s="13">
         <v>43235</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B43" s="13">
         <v>43235</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B44" s="13">
         <v>43237</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B45" s="13">
         <v>43237</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B46" s="13">
         <v>43237</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B47" s="13">
         <v>43237</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B48" s="13">
         <v>43237</v>
@@ -3966,12 +3966,12 @@
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B49" s="13">
         <v>43242</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B50" s="13">
         <v>43242</v>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B52" s="13">
         <v>43242</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -4061,7 +4061,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B55" s="13">
         <v>43244</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" s="13">
         <v>43244</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B57" s="13">
         <v>43244</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B58" s="13">
         <v>43244</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B59" s="13">
         <v>43244</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B60" s="13">
         <v>43244</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B61" s="13">
         <v>43249</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B62" s="13">
         <v>43249</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B63" s="13">
         <v>43249</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B64" s="13">
         <v>43249</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B65" s="13">
         <v>43249</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" s="13">
         <v>43251</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B67" s="13">
         <v>43251</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B68" s="13">
         <v>43251</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B69" s="13">
         <v>43251</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B70" s="13">
         <v>43251</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B71" s="13">
         <v>43251</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" s="13">
         <v>43251</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B73" s="13">
         <v>43192</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B74" s="13">
         <v>43193</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B75" s="13">
         <v>43193</v>
@@ -4369,12 +4369,12 @@
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B76" s="13">
         <v>43193</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B77" s="13">
         <v>43193</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B78" s="13">
         <v>43193</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B79" s="13">
         <v>43195</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B80" s="13">
         <v>43195</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B81" s="13">
         <v>43195</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B82" s="13">
         <v>43195</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B83" s="13">
         <v>43200</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B84" s="13">
         <v>43200</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B85" s="13">
         <v>43200</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B86" s="13">
         <v>43202</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B87" s="13">
         <v>43202</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B88" s="13">
         <v>43202</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B89" s="13">
         <v>43202</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B91" s="13">
         <v>43202</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B92" s="13">
         <v>43207</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B93" s="13">
         <v>43207</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B94" s="13">
         <v>43207</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B95" s="13">
         <v>43207</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B96" s="13">
         <v>43209</v>
@@ -4682,12 +4682,12 @@
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B97" s="13">
         <v>43209</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B98" s="13">
         <v>43209</v>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B99" s="13">
         <v>43209</v>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B100" s="13">
         <v>43209</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B101" s="13">
         <v>43209</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B102" s="13">
         <v>43214</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B103" s="13">
         <v>43214</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B104" s="13">
         <v>43214</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B105" s="13">
         <v>43214</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B106" s="13">
         <v>43216</v>
@@ -4830,12 +4830,12 @@
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B107" s="13">
         <v>43216</v>
@@ -4858,12 +4858,12 @@
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B109" s="13">
         <v>43216</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B110" s="13">
         <v>43216</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B111" s="13">
         <v>43216</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B112" s="13">
         <v>43216</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B113" s="13">
         <v>43160</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B114" s="13">
         <v>43160</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B115" s="13">
         <v>43160</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B116" s="13">
         <v>43160</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B117" s="13">
         <v>43165</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B118" s="13">
         <v>43165</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B119" s="13">
         <v>43165</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B120" s="13">
         <v>43165</v>
@@ -5036,12 +5036,12 @@
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B121" s="13">
         <v>43165</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B122" s="13">
         <v>43165</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B123" s="13">
         <v>43167</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B124" s="13">
         <v>43167</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B125" s="13">
         <v>43167</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B126" s="13">
         <v>43167</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B127" s="13">
         <v>43167</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B128" s="13">
         <v>43172</v>
@@ -5154,12 +5154,12 @@
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B129" s="13">
         <v>43172</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B130" s="13">
         <v>43172</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B131" s="13">
         <v>43172</v>
@@ -5197,12 +5197,12 @@
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B132" s="13">
         <v>43172</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B133" s="13">
         <v>43172</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B134" s="13">
         <v>43174</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B135" s="13">
         <v>43174</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B136" s="13">
         <v>43174</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B137" s="13">
         <v>43174</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B138" s="13">
         <v>43174</v>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B139" s="13">
         <v>43174</v>
@@ -5315,12 +5315,12 @@
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B140" s="13">
         <v>43179</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B141" s="13">
         <v>43179</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B142" s="13">
         <v>43179</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B143" s="13">
         <v>43179</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B144" s="13">
         <v>43179</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B145" s="13">
         <v>43179</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B146" s="13">
         <v>43181</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B147" s="13">
         <v>43181</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B148" s="13">
         <v>43181</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B149" s="13">
         <v>43181</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B150" s="13">
         <v>43181</v>
@@ -5493,7 +5493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -5508,21 +5508,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="13">
         <v>43228</v>
@@ -5530,12 +5530,12 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="13">
         <v>43237</v>
@@ -5543,7 +5543,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -5556,7 +5556,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -5569,12 +5569,12 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="13">
         <v>43193</v>
@@ -5582,12 +5582,12 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" s="13">
         <v>43209</v>
@@ -5595,12 +5595,12 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B8" s="13">
         <v>43216</v>
@@ -5608,7 +5608,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5621,12 +5621,12 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B10" s="13">
         <v>43165</v>
@@ -5634,12 +5634,12 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" s="13">
         <v>43172</v>
@@ -5647,12 +5647,12 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B12" s="13">
         <v>43172</v>
@@ -5660,12 +5660,12 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B13" s="13">
         <v>43174</v>
@@ -5673,7 +5673,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
